--- a/CRADLE/CRADLE_sheet.xlsx
+++ b/CRADLE/CRADLE_sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuwano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ku_sk\Documents\Inventor\AeroCAD2018\CRADLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12735"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>LRGN</t>
     <phoneticPr fontId="1"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L/D</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -606,14 +610,16 @@
       <c r="L8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -629,7 +635,10 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="4" t="e">
+        <f>L9/K9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N9" s="4">
         <f>0.5*K9*$C$3*($C$4^2)*$D9</f>
         <v>0</v>
@@ -655,17 +664,20 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="4" t="e">
+        <f t="shared" ref="M10:M73" si="0">L10/K10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N10" s="4">
-        <f t="shared" ref="N10:N49" si="0">0.5*K10*$C$3*($C$4^2)*$D10</f>
+        <f>0.5*K10*$C$3*($C$4^2)*$D10</f>
         <v>0</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" ref="O10:O49" si="1">0.5*L10*$C$3*($C$4^2)*$D10</f>
+        <f>0.5*L10*$C$3*($C$4^2)*$D10</f>
         <v>0</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" ref="P10:P49" si="2">N10*C$4/750</f>
+        <f>N10*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -681,17 +693,20 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N11" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K11*$C$3*($C$4^2)*$D11</f>
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L11*$C$3*($C$4^2)*$D11</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="2"/>
+        <f>N11*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -707,17 +722,20 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N12" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K12*$C$3*($C$4^2)*$D12</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L12*$C$3*($C$4^2)*$D12</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="2"/>
+        <f>N12*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -733,17 +751,20 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N13" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K13*$C$3*($C$4^2)*$D13</f>
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L13*$C$3*($C$4^2)*$D13</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="2"/>
+        <f>N13*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -759,17 +780,20 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N14" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K14*$C$3*($C$4^2)*$D14</f>
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L14*$C$3*($C$4^2)*$D14</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="2"/>
+        <f>N14*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -785,17 +809,20 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N15" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K15*$C$3*($C$4^2)*$D15</f>
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L15*$C$3*($C$4^2)*$D15</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="2"/>
+        <f>N15*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -811,17 +838,20 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N16" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K16*$C$3*($C$4^2)*$D16</f>
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L16*$C$3*($C$4^2)*$D16</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="2"/>
+        <f>N16*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -837,17 +867,20 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N17" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K17*$C$3*($C$4^2)*$D17</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L17*$C$3*($C$4^2)*$D17</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="2"/>
+        <f>N17*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -863,17 +896,20 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="4" t="e">
+        <f>L18/K18</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N18" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K18*$C$3*($C$4^2)*$D18</f>
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L18*$C$3*($C$4^2)*$D18</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="2"/>
+        <f>N18*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -889,17 +925,20 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N19" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K19*$C$3*($C$4^2)*$D19</f>
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L19*$C$3*($C$4^2)*$D19</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="2"/>
+        <f>N19*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -915,17 +954,20 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N20" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K20*$C$3*($C$4^2)*$D20</f>
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L20*$C$3*($C$4^2)*$D20</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="2"/>
+        <f>N20*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -941,17 +983,20 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N21" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K21*$C$3*($C$4^2)*$D21</f>
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L21*$C$3*($C$4^2)*$D21</f>
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="2"/>
+        <f>N21*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -967,17 +1012,20 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N22" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K22*$C$3*($C$4^2)*$D22</f>
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L22*$C$3*($C$4^2)*$D22</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="2"/>
+        <f>N22*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -993,17 +1041,20 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N23" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K23*$C$3*($C$4^2)*$D23</f>
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L23*$C$3*($C$4^2)*$D23</f>
         <v>0</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="2"/>
+        <f>N23*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1019,17 +1070,20 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N24" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K24*$C$3*($C$4^2)*$D24</f>
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L24*$C$3*($C$4^2)*$D24</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="2"/>
+        <f>N24*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1045,17 +1099,20 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N25" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K25*$C$3*($C$4^2)*$D25</f>
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L25*$C$3*($C$4^2)*$D25</f>
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="2"/>
+        <f>N25*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1071,17 +1128,20 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N26" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K26*$C$3*($C$4^2)*$D26</f>
         <v>0</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L26*$C$3*($C$4^2)*$D26</f>
         <v>0</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="2"/>
+        <f>N26*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1097,17 +1157,20 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N27" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K27*$C$3*($C$4^2)*$D27</f>
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L27*$C$3*($C$4^2)*$D27</f>
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="2"/>
+        <f>N27*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1123,17 +1186,20 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N28" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K28*$C$3*($C$4^2)*$D28</f>
         <v>0</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L28*$C$3*($C$4^2)*$D28</f>
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="2"/>
+        <f>N28*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1149,17 +1215,20 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N29" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K29*$C$3*($C$4^2)*$D29</f>
         <v>0</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L29*$C$3*($C$4^2)*$D29</f>
         <v>0</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="2"/>
+        <f>N29*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1175,17 +1244,20 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N30" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K30*$C$3*($C$4^2)*$D30</f>
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L30*$C$3*($C$4^2)*$D30</f>
         <v>0</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="2"/>
+        <f>N30*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1201,17 +1273,20 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N31" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K31*$C$3*($C$4^2)*$D31</f>
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L31*$C$3*($C$4^2)*$D31</f>
         <v>0</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="2"/>
+        <f>N31*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1227,17 +1302,20 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N32" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K32*$C$3*($C$4^2)*$D32</f>
         <v>0</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L32*$C$3*($C$4^2)*$D32</f>
         <v>0</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="2"/>
+        <f>N32*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1253,17 +1331,20 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N33" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K33*$C$3*($C$4^2)*$D33</f>
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L33*$C$3*($C$4^2)*$D33</f>
         <v>0</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="2"/>
+        <f>N33*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1279,17 +1360,20 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N34" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K34*$C$3*($C$4^2)*$D34</f>
         <v>0</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L34*$C$3*($C$4^2)*$D34</f>
         <v>0</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="2"/>
+        <f>N34*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1305,17 +1389,20 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N35" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K35*$C$3*($C$4^2)*$D35</f>
         <v>0</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L35*$C$3*($C$4^2)*$D35</f>
         <v>0</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="2"/>
+        <f>N35*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1331,17 +1418,20 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N36" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K36*$C$3*($C$4^2)*$D36</f>
         <v>0</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L36*$C$3*($C$4^2)*$D36</f>
         <v>0</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="2"/>
+        <f>N36*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1357,17 +1447,20 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N37" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K37*$C$3*($C$4^2)*$D37</f>
         <v>0</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L37*$C$3*($C$4^2)*$D37</f>
         <v>0</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="2"/>
+        <f>N37*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1383,17 +1476,20 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N38" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K38*$C$3*($C$4^2)*$D38</f>
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L38*$C$3*($C$4^2)*$D38</f>
         <v>0</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="2"/>
+        <f>N38*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1409,17 +1505,20 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N39" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K39*$C$3*($C$4^2)*$D39</f>
         <v>0</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L39*$C$3*($C$4^2)*$D39</f>
         <v>0</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="2"/>
+        <f>N39*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1435,17 +1534,20 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N40" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K40*$C$3*($C$4^2)*$D40</f>
         <v>0</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L40*$C$3*($C$4^2)*$D40</f>
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="2"/>
+        <f>N40*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1461,17 +1563,20 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N41" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K41*$C$3*($C$4^2)*$D41</f>
         <v>0</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L41*$C$3*($C$4^2)*$D41</f>
         <v>0</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="2"/>
+        <f>N41*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1487,17 +1592,20 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N42" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K42*$C$3*($C$4^2)*$D42</f>
         <v>0</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L42*$C$3*($C$4^2)*$D42</f>
         <v>0</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="2"/>
+        <f>N42*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1513,17 +1621,20 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N43" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K43*$C$3*($C$4^2)*$D43</f>
         <v>0</v>
       </c>
       <c r="O43" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L43*$C$3*($C$4^2)*$D43</f>
         <v>0</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="2"/>
+        <f>N43*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1539,17 +1650,20 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="1"/>
+      <c r="M44" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N44" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K44*$C$3*($C$4^2)*$D44</f>
         <v>0</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L44*$C$3*($C$4^2)*$D44</f>
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="2"/>
+        <f>N44*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1565,17 +1679,20 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="1"/>
+      <c r="M45" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N45" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K45*$C$3*($C$4^2)*$D45</f>
         <v>0</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L45*$C$3*($C$4^2)*$D45</f>
         <v>0</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="2"/>
+        <f>N45*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1591,17 +1708,20 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="1"/>
+      <c r="M46" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N46" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K46*$C$3*($C$4^2)*$D46</f>
         <v>0</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L46*$C$3*($C$4^2)*$D46</f>
         <v>0</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="2"/>
+        <f>N46*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1617,17 +1737,20 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="1"/>
+      <c r="M47" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N47" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K47*$C$3*($C$4^2)*$D47</f>
         <v>0</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L47*$C$3*($C$4^2)*$D47</f>
         <v>0</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="2"/>
+        <f>N47*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1643,17 +1766,20 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="1"/>
+      <c r="M48" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N48" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K48*$C$3*($C$4^2)*$D48</f>
         <v>0</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L48*$C$3*($C$4^2)*$D48</f>
         <v>0</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" si="2"/>
+        <f>N48*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1669,17 +1795,20 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N49" s="4">
-        <f t="shared" si="0"/>
+        <f>0.5*K49*$C$3*($C$4^2)*$D49</f>
         <v>0</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="1"/>
+        <f>0.5*L49*$C$3*($C$4^2)*$D49</f>
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="2"/>
+        <f>N49*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1695,17 +1824,20 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="1"/>
+      <c r="M50" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N50" s="4">
-        <f t="shared" ref="N50:N107" si="3">0.5*K50*$C$3*($C$4^2)*$D50</f>
+        <f>0.5*K50*$C$3*($C$4^2)*$D50</f>
         <v>0</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" ref="O50:O107" si="4">0.5*L50*$C$3*($C$4^2)*$D50</f>
+        <f>0.5*L50*$C$3*($C$4^2)*$D50</f>
         <v>0</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" ref="P50:P107" si="5">N50*C$4/750</f>
+        <f>N50*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1721,17 +1853,20 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="1"/>
+      <c r="M51" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N51" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K51*$C$3*($C$4^2)*$D51</f>
         <v>0</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L51*$C$3*($C$4^2)*$D51</f>
         <v>0</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="5"/>
+        <f>N51*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1747,17 +1882,20 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="1"/>
+      <c r="M52" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N52" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K52*$C$3*($C$4^2)*$D52</f>
         <v>0</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L52*$C$3*($C$4^2)*$D52</f>
         <v>0</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="5"/>
+        <f>N52*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1773,17 +1911,20 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="1"/>
+      <c r="M53" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N53" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K53*$C$3*($C$4^2)*$D53</f>
         <v>0</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L53*$C$3*($C$4^2)*$D53</f>
         <v>0</v>
       </c>
       <c r="P53" s="4">
-        <f t="shared" si="5"/>
+        <f>N53*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1799,17 +1940,20 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="1"/>
+      <c r="M54" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N54" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K54*$C$3*($C$4^2)*$D54</f>
         <v>0</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L54*$C$3*($C$4^2)*$D54</f>
         <v>0</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" si="5"/>
+        <f>N54*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1825,17 +1969,20 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="1"/>
+      <c r="M55" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N55" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K55*$C$3*($C$4^2)*$D55</f>
         <v>0</v>
       </c>
       <c r="O55" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L55*$C$3*($C$4^2)*$D55</f>
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="5"/>
+        <f>N55*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1851,17 +1998,20 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="1"/>
+      <c r="M56" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N56" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K56*$C$3*($C$4^2)*$D56</f>
         <v>0</v>
       </c>
       <c r="O56" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L56*$C$3*($C$4^2)*$D56</f>
         <v>0</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="5"/>
+        <f>N56*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1877,17 +2027,20 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="1"/>
+      <c r="M57" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N57" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K57*$C$3*($C$4^2)*$D57</f>
         <v>0</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L57*$C$3*($C$4^2)*$D57</f>
         <v>0</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="5"/>
+        <f>N57*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1903,17 +2056,20 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="1"/>
+      <c r="M58" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N58" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K58*$C$3*($C$4^2)*$D58</f>
         <v>0</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L58*$C$3*($C$4^2)*$D58</f>
         <v>0</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" si="5"/>
+        <f>N58*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1929,17 +2085,20 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="1"/>
+      <c r="M59" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N59" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K59*$C$3*($C$4^2)*$D59</f>
         <v>0</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L59*$C$3*($C$4^2)*$D59</f>
         <v>0</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="5"/>
+        <f>N59*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1955,17 +2114,20 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="1"/>
+      <c r="M60" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N60" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K60*$C$3*($C$4^2)*$D60</f>
         <v>0</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L60*$C$3*($C$4^2)*$D60</f>
         <v>0</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" si="5"/>
+        <f>N60*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -1981,17 +2143,20 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="1"/>
+      <c r="M61" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N61" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K61*$C$3*($C$4^2)*$D61</f>
         <v>0</v>
       </c>
       <c r="O61" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L61*$C$3*($C$4^2)*$D61</f>
         <v>0</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" si="5"/>
+        <f>N61*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2007,17 +2172,20 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="1"/>
+      <c r="M62" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N62" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K62*$C$3*($C$4^2)*$D62</f>
         <v>0</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L62*$C$3*($C$4^2)*$D62</f>
         <v>0</v>
       </c>
       <c r="P62" s="4">
-        <f t="shared" si="5"/>
+        <f>N62*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2033,17 +2201,20 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="1"/>
+      <c r="M63" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N63" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K63*$C$3*($C$4^2)*$D63</f>
         <v>0</v>
       </c>
       <c r="O63" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L63*$C$3*($C$4^2)*$D63</f>
         <v>0</v>
       </c>
       <c r="P63" s="4">
-        <f t="shared" si="5"/>
+        <f>N63*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2059,17 +2230,20 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="1"/>
+      <c r="M64" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N64" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K64*$C$3*($C$4^2)*$D64</f>
         <v>0</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L64*$C$3*($C$4^2)*$D64</f>
         <v>0</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="5"/>
+        <f>N64*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2085,17 +2259,20 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="1"/>
+      <c r="M65" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N65" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K65*$C$3*($C$4^2)*$D65</f>
         <v>0</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L65*$C$3*($C$4^2)*$D65</f>
         <v>0</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="5"/>
+        <f>N65*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2111,17 +2288,20 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="1"/>
+      <c r="M66" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N66" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K66*$C$3*($C$4^2)*$D66</f>
         <v>0</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L66*$C$3*($C$4^2)*$D66</f>
         <v>0</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="5"/>
+        <f>N66*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2137,17 +2317,20 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="1"/>
+      <c r="M67" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N67" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K67*$C$3*($C$4^2)*$D67</f>
         <v>0</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L67*$C$3*($C$4^2)*$D67</f>
         <v>0</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="5"/>
+        <f>N67*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2163,17 +2346,20 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="1"/>
+      <c r="M68" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N68" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K68*$C$3*($C$4^2)*$D68</f>
         <v>0</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L68*$C$3*($C$4^2)*$D68</f>
         <v>0</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="5"/>
+        <f>N68*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2189,17 +2375,20 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="1"/>
+      <c r="M69" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N69" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K69*$C$3*($C$4^2)*$D69</f>
         <v>0</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L69*$C$3*($C$4^2)*$D69</f>
         <v>0</v>
       </c>
       <c r="P69" s="4">
-        <f t="shared" si="5"/>
+        <f>N69*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2215,17 +2404,20 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="1"/>
+      <c r="M70" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N70" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K70*$C$3*($C$4^2)*$D70</f>
         <v>0</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L70*$C$3*($C$4^2)*$D70</f>
         <v>0</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="5"/>
+        <f>N70*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2241,17 +2433,20 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="1"/>
+      <c r="M71" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N71" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K71*$C$3*($C$4^2)*$D71</f>
         <v>0</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L71*$C$3*($C$4^2)*$D71</f>
         <v>0</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="5"/>
+        <f>N71*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2267,17 +2462,20 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="1"/>
+      <c r="M72" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N72" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K72*$C$3*($C$4^2)*$D72</f>
         <v>0</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L72*$C$3*($C$4^2)*$D72</f>
         <v>0</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="5"/>
+        <f>N72*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2293,17 +2491,20 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="1"/>
+      <c r="M73" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N73" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K73*$C$3*($C$4^2)*$D73</f>
         <v>0</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L73*$C$3*($C$4^2)*$D73</f>
         <v>0</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="5"/>
+        <f>N73*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2319,17 +2520,20 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="1"/>
+      <c r="M74" s="4" t="e">
+        <f t="shared" ref="M74:M107" si="1">L74/K74</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N74" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K74*$C$3*($C$4^2)*$D74</f>
         <v>0</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L74*$C$3*($C$4^2)*$D74</f>
         <v>0</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="5"/>
+        <f>N74*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2345,17 +2549,20 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="1"/>
+      <c r="M75" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N75" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K75*$C$3*($C$4^2)*$D75</f>
         <v>0</v>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L75*$C$3*($C$4^2)*$D75</f>
         <v>0</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="5"/>
+        <f>N75*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2371,17 +2578,20 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="1"/>
+      <c r="M76" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N76" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K76*$C$3*($C$4^2)*$D76</f>
         <v>0</v>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L76*$C$3*($C$4^2)*$D76</f>
         <v>0</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="5"/>
+        <f>N76*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2397,17 +2607,20 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="1"/>
+      <c r="M77" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N77" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K77*$C$3*($C$4^2)*$D77</f>
         <v>0</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L77*$C$3*($C$4^2)*$D77</f>
         <v>0</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="5"/>
+        <f>N77*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2423,17 +2636,20 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="1"/>
+      <c r="M78" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N78" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K78*$C$3*($C$4^2)*$D78</f>
         <v>0</v>
       </c>
       <c r="O78" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L78*$C$3*($C$4^2)*$D78</f>
         <v>0</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="5"/>
+        <f>N78*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2449,17 +2665,20 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="1"/>
+      <c r="M79" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N79" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K79*$C$3*($C$4^2)*$D79</f>
         <v>0</v>
       </c>
       <c r="O79" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L79*$C$3*($C$4^2)*$D79</f>
         <v>0</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="5"/>
+        <f>N79*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2475,17 +2694,20 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="1"/>
+      <c r="M80" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N80" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K80*$C$3*($C$4^2)*$D80</f>
         <v>0</v>
       </c>
       <c r="O80" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L80*$C$3*($C$4^2)*$D80</f>
         <v>0</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="5"/>
+        <f>N80*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2501,17 +2723,20 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="1"/>
+      <c r="M81" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N81" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K81*$C$3*($C$4^2)*$D81</f>
         <v>0</v>
       </c>
       <c r="O81" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L81*$C$3*($C$4^2)*$D81</f>
         <v>0</v>
       </c>
       <c r="P81" s="4">
-        <f t="shared" si="5"/>
+        <f>N81*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2527,17 +2752,20 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="1"/>
+      <c r="M82" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N82" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K82*$C$3*($C$4^2)*$D82</f>
         <v>0</v>
       </c>
       <c r="O82" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L82*$C$3*($C$4^2)*$D82</f>
         <v>0</v>
       </c>
       <c r="P82" s="4">
-        <f t="shared" si="5"/>
+        <f>N82*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2553,17 +2781,20 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="1"/>
+      <c r="M83" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N83" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K83*$C$3*($C$4^2)*$D83</f>
         <v>0</v>
       </c>
       <c r="O83" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L83*$C$3*($C$4^2)*$D83</f>
         <v>0</v>
       </c>
       <c r="P83" s="4">
-        <f t="shared" si="5"/>
+        <f>N83*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2579,17 +2810,20 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="1"/>
+      <c r="M84" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N84" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K84*$C$3*($C$4^2)*$D84</f>
         <v>0</v>
       </c>
       <c r="O84" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L84*$C$3*($C$4^2)*$D84</f>
         <v>0</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="5"/>
+        <f>N84*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2605,17 +2839,20 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="1"/>
+      <c r="M85" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N85" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K85*$C$3*($C$4^2)*$D85</f>
         <v>0</v>
       </c>
       <c r="O85" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L85*$C$3*($C$4^2)*$D85</f>
         <v>0</v>
       </c>
       <c r="P85" s="4">
-        <f t="shared" si="5"/>
+        <f>N85*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2631,17 +2868,20 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="1"/>
+      <c r="M86" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N86" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K86*$C$3*($C$4^2)*$D86</f>
         <v>0</v>
       </c>
       <c r="O86" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L86*$C$3*($C$4^2)*$D86</f>
         <v>0</v>
       </c>
       <c r="P86" s="4">
-        <f t="shared" si="5"/>
+        <f>N86*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2657,17 +2897,20 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="1"/>
+      <c r="M87" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N87" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K87*$C$3*($C$4^2)*$D87</f>
         <v>0</v>
       </c>
       <c r="O87" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L87*$C$3*($C$4^2)*$D87</f>
         <v>0</v>
       </c>
       <c r="P87" s="4">
-        <f t="shared" si="5"/>
+        <f>N87*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2683,17 +2926,20 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="1"/>
+      <c r="M88" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N88" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K88*$C$3*($C$4^2)*$D88</f>
         <v>0</v>
       </c>
       <c r="O88" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L88*$C$3*($C$4^2)*$D88</f>
         <v>0</v>
       </c>
       <c r="P88" s="4">
-        <f t="shared" si="5"/>
+        <f>N88*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2709,17 +2955,20 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="1"/>
+      <c r="M89" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N89" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K89*$C$3*($C$4^2)*$D89</f>
         <v>0</v>
       </c>
       <c r="O89" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L89*$C$3*($C$4^2)*$D89</f>
         <v>0</v>
       </c>
       <c r="P89" s="4">
-        <f t="shared" si="5"/>
+        <f>N89*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2735,17 +2984,20 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="1"/>
+      <c r="M90" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N90" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K90*$C$3*($C$4^2)*$D90</f>
         <v>0</v>
       </c>
       <c r="O90" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L90*$C$3*($C$4^2)*$D90</f>
         <v>0</v>
       </c>
       <c r="P90" s="4">
-        <f t="shared" si="5"/>
+        <f>N90*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2761,17 +3013,20 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="1"/>
+      <c r="M91" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N91" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K91*$C$3*($C$4^2)*$D91</f>
         <v>0</v>
       </c>
       <c r="O91" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L91*$C$3*($C$4^2)*$D91</f>
         <v>0</v>
       </c>
       <c r="P91" s="4">
-        <f t="shared" si="5"/>
+        <f>N91*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2787,17 +3042,20 @@
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="1"/>
+      <c r="M92" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N92" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K92*$C$3*($C$4^2)*$D92</f>
         <v>0</v>
       </c>
       <c r="O92" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L92*$C$3*($C$4^2)*$D92</f>
         <v>0</v>
       </c>
       <c r="P92" s="4">
-        <f t="shared" si="5"/>
+        <f>N92*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2813,17 +3071,20 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="1"/>
+      <c r="M93" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N93" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K93*$C$3*($C$4^2)*$D93</f>
         <v>0</v>
       </c>
       <c r="O93" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L93*$C$3*($C$4^2)*$D93</f>
         <v>0</v>
       </c>
       <c r="P93" s="4">
-        <f t="shared" si="5"/>
+        <f>N93*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2839,17 +3100,20 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="1"/>
+      <c r="M94" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N94" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K94*$C$3*($C$4^2)*$D94</f>
         <v>0</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L94*$C$3*($C$4^2)*$D94</f>
         <v>0</v>
       </c>
       <c r="P94" s="4">
-        <f t="shared" si="5"/>
+        <f>N94*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2865,17 +3129,20 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="1"/>
+      <c r="M95" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N95" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K95*$C$3*($C$4^2)*$D95</f>
         <v>0</v>
       </c>
       <c r="O95" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L95*$C$3*($C$4^2)*$D95</f>
         <v>0</v>
       </c>
       <c r="P95" s="4">
-        <f t="shared" si="5"/>
+        <f>N95*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2891,17 +3158,20 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="1"/>
+      <c r="M96" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N96" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K96*$C$3*($C$4^2)*$D96</f>
         <v>0</v>
       </c>
       <c r="O96" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L96*$C$3*($C$4^2)*$D96</f>
         <v>0</v>
       </c>
       <c r="P96" s="4">
-        <f t="shared" si="5"/>
+        <f>N96*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2917,17 +3187,20 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="1"/>
+      <c r="M97" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N97" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K97*$C$3*($C$4^2)*$D97</f>
         <v>0</v>
       </c>
       <c r="O97" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L97*$C$3*($C$4^2)*$D97</f>
         <v>0</v>
       </c>
       <c r="P97" s="4">
-        <f t="shared" si="5"/>
+        <f>N97*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2943,17 +3216,20 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="1"/>
+      <c r="M98" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N98" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K98*$C$3*($C$4^2)*$D98</f>
         <v>0</v>
       </c>
       <c r="O98" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L98*$C$3*($C$4^2)*$D98</f>
         <v>0</v>
       </c>
       <c r="P98" s="4">
-        <f t="shared" si="5"/>
+        <f>N98*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2969,17 +3245,20 @@
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="1"/>
+      <c r="M99" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N99" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K99*$C$3*($C$4^2)*$D99</f>
         <v>0</v>
       </c>
       <c r="O99" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L99*$C$3*($C$4^2)*$D99</f>
         <v>0</v>
       </c>
       <c r="P99" s="4">
-        <f t="shared" si="5"/>
+        <f>N99*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -2995,17 +3274,20 @@
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="1"/>
+      <c r="M100" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N100" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K100*$C$3*($C$4^2)*$D100</f>
         <v>0</v>
       </c>
       <c r="O100" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L100*$C$3*($C$4^2)*$D100</f>
         <v>0</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" si="5"/>
+        <f>N100*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -3021,17 +3303,20 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="1"/>
+      <c r="M101" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N101" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K101*$C$3*($C$4^2)*$D101</f>
         <v>0</v>
       </c>
       <c r="O101" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L101*$C$3*($C$4^2)*$D101</f>
         <v>0</v>
       </c>
       <c r="P101" s="4">
-        <f t="shared" si="5"/>
+        <f>N101*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -3047,17 +3332,20 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="1"/>
+      <c r="M102" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N102" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K102*$C$3*($C$4^2)*$D102</f>
         <v>0</v>
       </c>
       <c r="O102" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L102*$C$3*($C$4^2)*$D102</f>
         <v>0</v>
       </c>
       <c r="P102" s="4">
-        <f t="shared" si="5"/>
+        <f>N102*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -3073,17 +3361,20 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="1"/>
+      <c r="M103" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N103" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K103*$C$3*($C$4^2)*$D103</f>
         <v>0</v>
       </c>
       <c r="O103" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L103*$C$3*($C$4^2)*$D103</f>
         <v>0</v>
       </c>
       <c r="P103" s="4">
-        <f t="shared" si="5"/>
+        <f>N103*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -3099,17 +3390,20 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="1"/>
+      <c r="M104" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N104" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K104*$C$3*($C$4^2)*$D104</f>
         <v>0</v>
       </c>
       <c r="O104" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L104*$C$3*($C$4^2)*$D104</f>
         <v>0</v>
       </c>
       <c r="P104" s="4">
-        <f t="shared" si="5"/>
+        <f>N104*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -3125,17 +3419,20 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="1"/>
+      <c r="M105" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N105" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K105*$C$3*($C$4^2)*$D105</f>
         <v>0</v>
       </c>
       <c r="O105" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L105*$C$3*($C$4^2)*$D105</f>
         <v>0</v>
       </c>
       <c r="P105" s="4">
-        <f t="shared" si="5"/>
+        <f>N105*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -3151,17 +3448,20 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="1"/>
+      <c r="M106" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N106" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K106*$C$3*($C$4^2)*$D106</f>
         <v>0</v>
       </c>
       <c r="O106" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L106*$C$3*($C$4^2)*$D106</f>
         <v>0</v>
       </c>
       <c r="P106" s="4">
-        <f t="shared" si="5"/>
+        <f>N106*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -3177,17 +3477,20 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="1"/>
+      <c r="M107" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N107" s="4">
-        <f t="shared" si="3"/>
+        <f>0.5*K107*$C$3*($C$4^2)*$D107</f>
         <v>0</v>
       </c>
       <c r="O107" s="4">
-        <f t="shared" si="4"/>
+        <f>0.5*L107*$C$3*($C$4^2)*$D107</f>
         <v>0</v>
       </c>
       <c r="P107" s="4">
-        <f t="shared" si="5"/>
+        <f>N107*C$4/750</f>
         <v>0</v>
       </c>
     </row>
@@ -3195,5 +3498,8 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M9:M107" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>